--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\school\20-21\TINPRJ03-34\Git-TINPRJ03-34\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{7034EB76-5D71-4E3C-9D76-0B99E5971D20}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2820" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="19">
   <si>
     <t>K = keypad</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>Motor 5 euro uit</t>
+  </si>
+  <si>
+    <t>Motor 10 euro uit</t>
+  </si>
+  <si>
+    <t>Motor 20 euro uit</t>
+  </si>
+  <si>
+    <t>Motor 50 euro uit</t>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,13 +415,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -434,7 +449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -445,7 +460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -459,7 +474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -473,7 +488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -490,7 +505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -504,7 +519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -518,7 +533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -529,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -540,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -551,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -562,7 +577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -573,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -584,7 +599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -595,7 +610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -609,7 +624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -620,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -634,7 +649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -648,7 +663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -662,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -676,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -690,7 +705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -701,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -715,7 +730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -729,7 +744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -743,7 +758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -754,7 +769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -765,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -775,8 +790,11 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -786,8 +804,11 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -797,8 +818,11 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -808,8 +832,11 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -819,8 +846,11 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -830,8 +860,11 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -841,8 +874,11 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -852,8 +888,11 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -864,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -875,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -886,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -897,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -908,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{7034EB76-5D71-4E3C-9D76-0B99E5971D20}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{098CE509-411F-4482-8312-5F88C7F15462}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12075" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
   <si>
     <t>K = keypad</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Motor 50 euro uit</t>
+  </si>
+  <si>
+    <t>Motor 5 euro in</t>
+  </si>
+  <si>
+    <t>Motor 10 euro in</t>
+  </si>
+  <si>
+    <t>Motor 20 euro in</t>
+  </si>
+  <si>
+    <t>Motor 50 euro in</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{098CE509-411F-4482-8312-5F88C7F15462}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A055DD9-4186-4A42-BD89-F1A92EC4A2F1}"/>
   <bookViews>
-    <workbookView xWindow="-12075" yWindow="3840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
   <si>
     <t>K = keypad</t>
   </si>
@@ -73,27 +73,6 @@
   </si>
   <si>
     <t>Motor 5 euro uit</t>
-  </si>
-  <si>
-    <t>Motor 10 euro uit</t>
-  </si>
-  <si>
-    <t>Motor 20 euro uit</t>
-  </si>
-  <si>
-    <t>Motor 50 euro uit</t>
-  </si>
-  <si>
-    <t>Motor 5 euro in</t>
-  </si>
-  <si>
-    <t>Motor 10 euro in</t>
-  </si>
-  <si>
-    <t>Motor 20 euro in</t>
-  </si>
-  <si>
-    <t>Motor 50 euro in</t>
   </si>
 </sst>
 </file>
@@ -425,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E43"/>
+  <dimension ref="A2:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,9 +781,6 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -816,67 +792,40 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>28</v>
-      </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -886,11 +835,8 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -900,11 +846,8 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -915,7 +858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -926,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -937,7 +880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -948,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -959,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -968,6 +911,46 @@
       </c>
       <c r="C43" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\school\20-21\TINPRJ03-34\Git-TINPRJ03-34\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A055DD9-4186-4A42-BD89-F1A92EC4A2F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647E519F-E655-48BF-B7D4-C85CA8E1E891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="18">
   <si>
     <t>K = keypad</t>
   </si>
@@ -69,10 +69,16 @@
     <t>r</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Motor 5 euro uit</t>
+    <t>--</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +110,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,13 +150,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,18 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E53"/>
+  <dimension ref="A2:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -429,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -440,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -450,8 +486,20 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -461,11 +509,23 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -475,11 +535,20 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -489,14 +558,23 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -506,11 +584,20 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -520,11 +607,23 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -534,8 +633,20 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -545,8 +656,17 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -557,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -568,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -579,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -590,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -600,8 +720,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -614,8 +737,11 @@
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -625,8 +751,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -636,11 +765,11 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -650,11 +779,11 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -664,11 +793,11 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -682,7 +811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -696,18 +825,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -721,7 +850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -731,11 +860,11 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -749,18 +878,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -770,8 +899,11 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -781,8 +913,11 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -792,40 +927,55 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -835,8 +985,11 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -846,8 +999,11 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -858,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -869,89 +1025,82 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A055DD9-4186-4A42-BD89-F1A92EC4A2F1}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAA778DC-5FD1-41BD-91A2-00013173BA19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
   <si>
     <t>K = keypad</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>p</t>
-  </si>
-  <si>
-    <t>Motor 5 euro uit</t>
   </si>
 </sst>
 </file>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E53"/>
+  <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,46 +910,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\school\20-21\TINPRJ03-34\Git-TINPRJ03-34\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{A61CF17D-2FFF-4DF5-A7D0-5EC7C1EE5616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{FAA778DC-5FD1-41BD-91A2-00013173BA19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BA4719-2F69-478C-901A-D9ACCDA85799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>K = keypad</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +104,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,13 +144,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,16 +434,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -426,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -437,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -447,8 +478,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -458,11 +492,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -472,11 +506,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -489,11 +523,8 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -507,7 +538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -521,73 +552,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -597,8 +634,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -611,8 +651,11 @@
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -622,8 +665,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -633,11 +679,11 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -647,11 +693,11 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -661,11 +707,11 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -679,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -693,18 +739,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -718,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -728,11 +777,11 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -746,18 +795,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -767,8 +819,11 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -778,8 +833,11 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -789,40 +847,51 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -832,8 +901,11 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -843,8 +915,11 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -855,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -866,7 +941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -877,7 +952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -888,7 +963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -899,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\school\20-21\TINPRJ03-34\Git-TINPRJ03-34\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BA4719-2F69-478C-901A-D9ACCDA85799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{39BA4719-2F69-478C-901A-D9ACCDA85799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3ED28CD-627E-49A5-8941-54F47BA9F48C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>K = keypad</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>m 5 forward</t>
+  </si>
+  <si>
+    <t>m 5 backward</t>
+  </si>
+  <si>
+    <t>m 10 forward</t>
+  </si>
+  <si>
+    <t>m 10 backward</t>
+  </si>
+  <si>
+    <t>m 20 forward</t>
+  </si>
+  <si>
+    <t>m 20 backward</t>
+  </si>
+  <si>
+    <t>m 50 forward</t>
+  </si>
+  <si>
+    <t>m 50 backward</t>
   </si>
 </sst>
 </file>
@@ -154,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,16 +458,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -457,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -468,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -482,7 +506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -493,10 +517,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -510,7 +534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -524,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -538,7 +562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -552,7 +576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -564,7 +588,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -576,7 +600,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -588,7 +612,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -600,7 +624,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -612,7 +636,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -624,7 +648,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -635,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -655,7 +679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -669,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -680,10 +704,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -697,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -711,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -725,7 +749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -739,7 +763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -753,7 +777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -767,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -781,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -795,7 +819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -809,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -820,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -834,10 +858,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -848,10 +872,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -861,7 +885,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>8</v>
@@ -871,7 +895,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>8</v>
@@ -881,7 +905,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>8</v>
@@ -891,7 +915,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -902,10 +926,10 @@
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -916,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -930,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -941,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -952,7 +976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -963,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -974,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5061cdd7803951a7/Documenten/Ramon/TI1C/Blok 3/Project 34/Git-TINPRJ03-34/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\school\jaar01\TINPRJ03-34\Git-TINPRJ03-34\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{39BA4719-2F69-478C-901A-D9ACCDA85799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3ED28CD-627E-49A5-8941-54F47BA9F48C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB87AE-A92A-4886-A00E-96A7E96C3ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="25">
   <si>
     <t>K = keypad</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>m 50 backward</t>
+  </si>
+  <si>
+    <t>k?</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,16 +461,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -492,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -506,7 +509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -520,7 +523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -534,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -548,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -562,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -576,7 +579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -588,7 +591,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -600,7 +603,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -612,7 +615,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -624,7 +627,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -636,7 +639,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -648,7 +651,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -662,7 +665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -679,7 +682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -693,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -707,7 +710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -721,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -735,7 +738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18</v>
       </c>
@@ -749,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -777,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
@@ -791,7 +797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -805,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -819,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -833,7 +839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -847,7 +853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -861,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -875,7 +881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
@@ -885,7 +891,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>8</v>
@@ -895,7 +901,7 @@
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>8</v>
@@ -905,7 +911,7 @@
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>8</v>
@@ -915,7 +921,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>32</v>
       </c>
@@ -929,7 +935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>33</v>
       </c>
@@ -943,7 +949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>34</v>
       </c>
@@ -954,7 +960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>35</v>
       </c>
@@ -965,7 +971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -976,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>38</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>39</v>
       </c>

--- a/code/GPIO.xlsx
+++ b/code/GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\school\jaar01\TINPRJ03-34\Git-TINPRJ03-34\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarno\Documents\school\20-21\TINPRJ03-34\Git-TINPRJ03-34\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB87AE-A92A-4886-A00E-96A7E96C3ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5810AB7E-E3F9-44B8-9C42-86D57CB9AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="24">
   <si>
     <t>K = keypad</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>m 50 backward</t>
-  </si>
-  <si>
-    <t>k?</t>
   </si>
 </sst>
 </file>
@@ -675,10 +672,7 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -765,9 +759,6 @@
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -807,7 +798,10 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
